--- a/biology/Botanique/Heliopeltaceae/Heliopeltaceae.xlsx
+++ b/biology/Botanique/Heliopeltaceae/Heliopeltaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heliopeltaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Coscinodiscales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Heliopelta, composé du préfixe helio- (du grec ηλιοσ / èlios), soleil, et du suffixe -pelt (du grec πέλτη / pelti), « petit bouclier ».
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Glorioptychus callidus(d'après G.D. Hanna 1927)
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille se compose de diatomées marines actuelles et de quelques genres fossiles (Actinodictyon, Anthodiscina, Centroporus, Sturtiella, Trossulus).
-L'espèce Glorioptychus callidus est une diatomée fossile de l'étage crétacé découverte en Californie en 1927[1].
+L'espèce Glorioptychus callidus est une diatomée fossile de l'étage crétacé découverte en Californie en 1927.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (27 novembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (27 novembre 2022) :
 † Actinodictyon Pantocsek, 1889
 Actinodiscus Greville, 1863
 Actinophaenia G.Shadbolt, 1854
@@ -617,7 +637,7 @@
 † Anthodiscina P.C.Silva, 1970
 Anthodiscus E.Grove &amp; G.Sturt, 1887
 † Centroporus J.Pantocsek, 1889
-Glorioptychus Hanna, 1927[1]
+Glorioptychus Hanna, 1927
 Heliopelta Ehrenberg, 1844
 Lepidodiscus Witt, 1886
 Plegmolobos S.Komura, 2005
@@ -652,9 +672,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Heliopeltaceae H.L.Smith, 1872[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Heliopeltaceae H.L.Smith, 1872.
 </t>
         </is>
       </c>
